--- a/Gamecamp2Ex/仕様一覧/落ち武者_仕様.xlsx
+++ b/Gamecamp2Ex/仕様一覧/落ち武者_仕様.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nky\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nky\Documents\KBC_GameCamp\Gamecamp2Ex\仕様一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -200,19 +200,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・画面上の座標</t>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・落ち武者と分かるような画像</t>
     <rPh sb="1" eb="2">
       <t>オ</t>
@@ -328,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +414,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -889,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,6 +1069,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2301,7 +2309,7 @@
   <dimension ref="A1:BB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2311,23 +2319,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
-      <c r="A2" t="s">
+    <row r="2" spans="1:54" ht="14.4">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
-      <c r="A3" t="s">
+    <row r="3" spans="1:54" ht="14.4">
+      <c r="A3" s="63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
-      <c r="A4" t="s">
+    <row r="4" spans="1:54" ht="14.4">
+      <c r="A4" s="63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
-      <c r="A5" t="s">
+    <row r="5" spans="1:54" ht="14.4">
+      <c r="A5" s="63" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2734,172 +2742,67 @@
       <c r="BB13" s="8"/>
     </row>
     <row r="14" spans="1:54" ht="19.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
-    </row>
-    <row r="15" spans="1:54" ht="19.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="8"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="8"/>
-      <c r="AU15" s="8"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="8"/>
-      <c r="BA15" s="8"/>
-      <c r="BB15" s="8"/>
-    </row>
-    <row r="16" spans="1:54" ht="19.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="8"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="8"/>
-      <c r="AT16" s="8"/>
-      <c r="AU16" s="8"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
-      <c r="AX16" s="8"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="8"/>
-      <c r="BA16" s="8"/>
-      <c r="BB16" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+    </row>
+    <row r="15" spans="1:54" ht="14.4">
+      <c r="A15" s="63" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:54" ht="19.2">
       <c r="A17" s="8"/>
@@ -3125,74 +3028,6 @@
       <c r="BA20" s="8"/>
       <c r="BB20" s="8"/>
     </row>
-    <row r="21" spans="1:54" ht="19.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
-      <c r="AU21" s="7"/>
-      <c r="AV21" s="7"/>
-      <c r="AW21" s="7"/>
-      <c r="AX21" s="7"/>
-      <c r="AY21" s="7"/>
-      <c r="AZ21" s="7"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="7"/>
-    </row>
-    <row r="22" spans="1:54">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:54">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="24" spans="1:54" ht="19.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
@@ -3427,8 +3262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3438,19 +3273,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
-      <c r="A2" t="s">
+    <row r="2" spans="1:54" ht="14.4">
+      <c r="A2" s="63" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
-      <c r="A3" t="s">
+    <row r="3" spans="1:54" ht="14.4">
+      <c r="A3" s="63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" ht="14.4">
+      <c r="A4" s="63" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54">
-      <c r="A4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:54" ht="19.2">
@@ -3514,8 +3349,8 @@
       <c r="BB7" s="7"/>
     </row>
     <row r="8" spans="1:54" ht="19.2">
-      <c r="A8" s="8" t="s">
-        <v>27</v>
+      <c r="A8" s="64" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -3745,7 +3580,7 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -3804,10 +3639,10 @@
     <row r="13" spans="1:54" ht="19.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>28</v>
+      <c r="C13" s="64" t="s">
+        <v>27</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -3862,9 +3697,9 @@
     <row r="14" spans="1:54" ht="19.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64" t="s">
+        <v>29</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -3920,8 +3755,8 @@
     <row r="15" spans="1:54" ht="19.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -3976,10 +3811,10 @@
     <row r="16" spans="1:54" ht="19.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>31</v>
+      <c r="C16" s="64" t="s">
+        <v>30</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -5275,7 +5110,7 @@
     </row>
     <row r="59" spans="1:54">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
